--- a/結果/曲げ剛性/曲率試験片/0°,90°固有変形比較.xlsx
+++ b/結果/曲げ剛性/曲率試験片/0°,90°固有変形比較.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B6591F-364E-4382-BA32-AA9F865F1320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,6 +151,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3971,6 +3971,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4089,6 +4090,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4169,6 +4171,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4276,6 +4279,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8190,6 +8194,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8221,6 +8226,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8228,7 +8234,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8304,6 +8309,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12218,6 +12224,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12249,6 +12256,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12256,7 +12264,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12332,6 +12339,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16246,6 +16254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16277,6 +16286,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -16284,7 +16294,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -18954,16 +18963,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" activeCellId="1" sqref="A3:A305 C3:C305"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18971,7 +18980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -19006,7 +19015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.16501650214195299</v>
       </c>
@@ -19042,7 +19051,7 @@
         <v>0.16175078999999926</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.49504950642585799</v>
       </c>
@@ -19078,7 +19087,7 @@
         <v>0.48530006000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.82508251070976302</v>
       </c>
@@ -19114,7 +19123,7 @@
         <v>0.80889892999999802</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1.15511450171471</v>
       </c>
@@ -19150,7 +19159,7 @@
         <v>1.13254929</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1.4851499795913701</v>
       </c>
@@ -19186,7 +19195,7 @@
         <v>1.4562988300000015</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1.8151850104331999</v>
       </c>
@@ -19222,7 +19231,7 @@
         <v>1.780149459999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2.1452150344848602</v>
       </c>
@@ -19258,7 +19267,7 @@
         <v>2.1041011800000007</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>2.4752449989318799</v>
       </c>
@@ -19294,7 +19303,7 @@
         <v>2.4281501800000029</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>2.80527997016907</v>
       </c>
@@ -19330,7 +19339,7 @@
         <v>2.7522487600000005</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>3.13531494140625</v>
       </c>
@@ -19366,7 +19375,7 @@
         <v>3.0763988499999968</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3.4653449058532702</v>
       </c>
@@ -19402,7 +19411,7 @@
         <v>3.4006996199999975</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>3.7953799962997401</v>
       </c>
@@ -19438,7 +19447,7 @@
         <v>3.7250499700000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>4.1254150867462203</v>
       </c>
@@ -19474,7 +19483,7 @@
         <v>4.0494499200000007</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>4.45544505119324</v>
       </c>
@@ -19510,7 +19519,7 @@
         <v>4.3739509600000019</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>4.7854800224304199</v>
       </c>
@@ -19546,7 +19555,7 @@
         <v>4.6985511800000026</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>5.1155149936675999</v>
       </c>
@@ -19582,7 +19591,7 @@
         <v>5.0232505800000027</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>5.4455449581146196</v>
       </c>
@@ -19618,7 +19627,7 @@
         <v>5.3479499800000028</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>5.7755749225616499</v>
       </c>
@@ -19654,7 +19663,7 @@
         <v>5.6727504699999969</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>6.1056098937988299</v>
       </c>
@@ -19690,7 +19699,7 @@
         <v>5.9976501499999983</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>6.4356448650360099</v>
       </c>
@@ -19726,7 +19735,7 @@
         <v>6.3226489999999984</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>6.7656748294830296</v>
       </c>
@@ -19762,7 +19771,7 @@
         <v>6.6477489500000004</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>7.0957098007202104</v>
       </c>
@@ -19798,7 +19807,7 @@
         <v>6.9729003899999995</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>7.4257450103759801</v>
       </c>
@@ -19834,7 +19843,7 @@
         <v>7.2981014300000027</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>7.7557752132415798</v>
       </c>
@@ -19870,7 +19879,7 @@
         <v>7.6233501399999994</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>8.0858051776886004</v>
       </c>
@@ -19906,7 +19915,7 @@
         <v>7.9487495400000014</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>8.4158401489257795</v>
       </c>
@@ -19942,7 +19951,7 @@
         <v>8.2742004400000013</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>8.7458748817443794</v>
       </c>
@@ -19978,7 +19987,7 @@
         <v>8.5997009299999974</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>9.0759048461914098</v>
       </c>
@@ -20014,7 +20023,7 @@
         <v>8.9253005999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>9.4059400558471697</v>
       </c>
@@ -20050,7 +20059,7 @@
         <v>9.2509498599999986</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>9.7359747886657697</v>
       </c>
@@ -20086,7 +20095,7 @@
         <v>9.5766487100000006</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>10.065994739532499</v>
       </c>
@@ -20122,7 +20131,7 @@
         <v>9.9023990600000005</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>10.3960499763489</v>
       </c>
@@ -20158,7 +20167,7 @@
         <v>10.228250500000001</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>10.7260999679565</v>
       </c>
@@ -20194,7 +20203,7 @@
         <v>10.554201130000003</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>11.056099891662599</v>
       </c>
@@ -20230,7 +20239,7 @@
         <v>10.880201339999999</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>11.386149883270299</v>
       </c>
@@ -20266,7 +20275,7 @@
         <v>11.206251139999999</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>11.716199874877899</v>
       </c>
@@ -20302,7 +20311,7 @@
         <v>11.532350540000003</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>12.046199798584</v>
       </c>
@@ -20338,7 +20347,7 @@
         <v>11.858499530000003</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>12.3762497901917</v>
       </c>
@@ -20374,7 +20383,7 @@
         <v>12.184749600000004</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>12.7062997817993</v>
       </c>
@@ -20410,7 +20419,7 @@
         <v>12.511100769999999</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>13.0362997055054</v>
       </c>
@@ -20446,7 +20455,7 @@
         <v>12.837501529999997</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>13.366349697113</v>
       </c>
@@ -20482,7 +20491,7 @@
         <v>13.163951869999998</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>13.6963996887207</v>
       </c>
@@ -20518,7 +20527,7 @@
         <v>13.490501399999999</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>14.0263996124268</v>
       </c>
@@ -20554,7 +20563,7 @@
         <v>13.817100519999997</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>14.356449604034401</v>
       </c>
@@ -20590,7 +20599,7 @@
         <v>14.143749239999998</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>14.686499595642101</v>
       </c>
@@ -20626,7 +20635,7 @@
         <v>14.470449449999997</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>15.016499996185299</v>
       </c>
@@ -20662,7 +20671,7 @@
         <v>14.797250750000003</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>15.346549987793001</v>
       </c>
@@ -20698,7 +20707,7 @@
         <v>15.124099729999998</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>15.676599979400599</v>
       </c>
@@ -20734,7 +20743,7 @@
         <v>15.450998310000003</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>16.006600379943801</v>
       </c>
@@ -20770,7 +20779,7 @@
         <v>15.777999880000003</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>16.336600303649899</v>
       </c>
@@ -20806,7 +20815,7 @@
         <v>16.105001450000003</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>16.666649818420399</v>
       </c>
@@ -20842,7 +20851,7 @@
         <v>16.432050699999998</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>16.9966993331909</v>
       </c>
@@ -20878,7 +20887,7 @@
         <v>16.75919914</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>17.326699256897001</v>
       </c>
@@ -20914,7 +20923,7 @@
         <v>17.08639908</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>17.6567497253418</v>
       </c>
@@ -20950,7 +20959,7 @@
         <v>17.413650509999997</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>17.9868001937866</v>
       </c>
@@ -20986,7 +20995,7 @@
         <v>17.740949630000003</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>18.316800117492701</v>
       </c>
@@ -21022,7 +21031,7 @@
         <v>18.068299289999999</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>18.646849632263201</v>
       </c>
@@ -21058,7 +21067,7 @@
         <v>18.39570045</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>18.976899147033699</v>
       </c>
@@ -21094,7 +21103,7 @@
         <v>18.72315025</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>19.306900024414102</v>
       </c>
@@ -21130,7 +21139,7 @@
         <v>19.050700190000001</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>19.636950492858901</v>
       </c>
@@ -21166,7 +21175,7 @@
         <v>19.378300670000002</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>19.967000007629402</v>
       </c>
@@ -21202,7 +21211,7 @@
         <v>19.705900190000001</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>20.296999931335399</v>
       </c>
@@ -21238,7 +21247,7 @@
         <v>20.033549310000001</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>20.627050399780298</v>
       </c>
@@ -21274,7 +21283,7 @@
         <v>20.361299509999998</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>20.957100868225101</v>
       </c>
@@ -21310,7 +21319,7 @@
         <v>20.689100270000001</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>21.287100791931199</v>
       </c>
@@ -21346,7 +21355,7 @@
         <v>21.016950609999999</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>21.617150306701699</v>
       </c>
@@ -21382,7 +21391,7 @@
         <v>21.344850539999999</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>21.9471998214722</v>
       </c>
@@ -21418,7 +21427,7 @@
         <v>21.67280006</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>22.277199745178201</v>
       </c>
@@ -21454,7 +21463,7 @@
         <v>22.000800129999998</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>22.607250213623001</v>
       </c>
@@ -21490,7 +21499,7 @@
         <v>22.328850750000001</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>22.9373006820679</v>
       </c>
@@ -21526,7 +21535,7 @@
         <v>22.656949999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>23.267300605773901</v>
       </c>
@@ -21562,7 +21571,7 @@
         <v>22.98509979</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>23.597350120544402</v>
       </c>
@@ -21598,7 +21607,7 @@
         <v>23.313300129999998</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>23.927399635314899</v>
       </c>
@@ -21634,7 +21643,7 @@
         <v>23.64155006</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>24.257399559021</v>
       </c>
@@ -21670,7 +21679,7 @@
         <v>23.969850539999999</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>24.587450027465799</v>
       </c>
@@ -21706,7 +21715,7 @@
         <v>24.298150060000001</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>24.917500495910598</v>
       </c>
@@ -21742,7 +21751,7 @@
         <v>24.62650013</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>25.247500419616699</v>
       </c>
@@ -21778,7 +21787,7 @@
         <v>24.954900739999999</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>25.5775499343872</v>
       </c>
@@ -21814,7 +21823,7 @@
         <v>25.283349990000001</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>25.907599449157701</v>
       </c>
@@ -21850,7 +21859,7 @@
         <v>25.61184978</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>26.237599372863802</v>
       </c>
@@ -21886,7 +21895,7 @@
         <v>25.94040012</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>26.567649841308601</v>
       </c>
@@ -21922,7 +21931,7 @@
         <v>26.269000049999999</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>26.8977003097534</v>
       </c>
@@ -21958,7 +21967,7 @@
         <v>26.597599979999998</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>27.227700233459501</v>
       </c>
@@ -21994,7 +22003,7 @@
         <v>26.926249500000001</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>27.557749748229998</v>
       </c>
@@ -22030,7 +22039,7 @@
         <v>27.254949570000001</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>27.887799263000499</v>
       </c>
@@ -22066,7 +22075,7 @@
         <v>27.583700180000001</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>28.2177991867065</v>
       </c>
@@ -22102,7 +22111,7 @@
         <v>27.912500380000001</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>28.547849655151399</v>
       </c>
@@ -22138,7 +22147,7 @@
         <v>28.241300580000001</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>28.877900123596199</v>
       </c>
@@ -22174,7 +22183,7 @@
         <v>28.570150380000001</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>29.2079000473022</v>
       </c>
@@ -22210,7 +22219,7 @@
         <v>28.89904976</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>29.5379495620728</v>
       </c>
@@ -22246,7 +22255,7 @@
         <v>29.227999690000001</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>29.868000030517599</v>
       </c>
@@ -22282,7 +22291,7 @@
         <v>29.557000160000001</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>30.198000907897899</v>
       </c>
@@ -22318,7 +22327,7 @@
         <v>29.886000630000002</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>30.5280504226685</v>
       </c>
@@ -22354,7 +22363,7 @@
         <v>30.215050699999999</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>30.858099937439</v>
       </c>
@@ -22390,7 +22399,7 @@
         <v>30.544150349999999</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>31.188099861145002</v>
       </c>
@@ -22426,7 +22435,7 @@
         <v>30.87325001</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>31.518150329589801</v>
       </c>
@@ -22462,7 +22471,7 @@
         <v>31.20240021</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>31.848199844360401</v>
       </c>
@@ -22498,7 +22507,7 @@
         <v>31.531600000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>32.178199768066399</v>
       </c>
@@ -22534,7 +22543,7 @@
         <v>31.860799790000002</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>32.508251190185497</v>
       </c>
@@ -22570,7 +22579,7 @@
         <v>32.190050130000003</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>32.838300704956097</v>
       </c>
@@ -22606,7 +22615,7 @@
         <v>32.519300459999997</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>33.168300628662102</v>
       </c>
@@ -22642,7 +22651,7 @@
         <v>32.848600390000001</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>33.498350143432603</v>
       </c>
@@ -22678,7 +22687,7 @@
         <v>33.177900309999998</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>33.828399658203097</v>
       </c>
@@ -22714,7 +22723,7 @@
         <v>33.507249829999999</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>34.158399581909201</v>
       </c>
@@ -22750,7 +22759,7 @@
         <v>33.836649890000004</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>34.488449096679702</v>
       </c>
@@ -22786,7 +22795,7 @@
         <v>34.166049960000002</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>34.8185005187988</v>
       </c>
@@ -22822,7 +22831,7 @@
         <v>34.49545002</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>35.148500442504897</v>
       </c>
@@ -22858,7 +22867,7 @@
         <v>34.824950219999998</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>35.478549957275398</v>
       </c>
@@ -22894,7 +22903,7 @@
         <v>35.154449939999999</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>35.808599472045898</v>
       </c>
@@ -22930,7 +22939,7 @@
         <v>35.483999730000001</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>36.138599395752003</v>
       </c>
@@ -22966,7 +22975,7 @@
         <v>35.813549999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>36.468650817871101</v>
       </c>
@@ -23002,7 +23011,7 @@
         <v>36.143100259999997</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>36.798700332641602</v>
       </c>
@@ -23038,7 +23047,7 @@
         <v>36.472700119999999</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>37.128700256347699</v>
       </c>
@@ -23074,7 +23083,7 @@
         <v>36.80235004</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>37.4587497711182</v>
       </c>
@@ -23110,7 +23119,7 @@
         <v>37.132050039999996</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>37.7887992858887</v>
       </c>
@@ -23146,7 +23155,7 @@
         <v>37.461750029999997</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>38.118799209594698</v>
       </c>
@@ -23182,7 +23191,7 @@
         <v>37.791450019999999</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>38.448848724365199</v>
       </c>
@@ -23218,7 +23227,7 @@
         <v>38.121150020000002</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>38.778900146484403</v>
       </c>
@@ -23254,7 +23263,7 @@
         <v>38.450850009999996</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>39.108900070190401</v>
       </c>
@@ -23290,7 +23299,7 @@
         <v>38.780600069999998</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>39.438949584960902</v>
       </c>
@@ -23326,7 +23335,7 @@
         <v>39.110400200000001</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>39.768999099731403</v>
       </c>
@@ -23362,7 +23371,7 @@
         <v>39.440199849999999</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>40.0989990234375</v>
       </c>
@@ -23398,7 +23407,7 @@
         <v>39.769999980000001</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>40.429050445556598</v>
       </c>
@@ -23434,7 +23443,7 @@
         <v>40.099810122999997</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>40.759099960327099</v>
       </c>
@@ -23470,7 +23479,7 @@
         <v>40.429629802999997</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>41.089099884033203</v>
       </c>
@@ -23506,7 +23515,7 @@
         <v>40.759484768</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>41.419151306152301</v>
       </c>
@@ -23542,7 +23551,7 @@
         <v>41.089349747</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>41.749200820922901</v>
       </c>
@@ -23578,7 +23587,7 @@
         <v>41.419234752999998</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>42.079200744628899</v>
       </c>
@@ -23614,7 +23623,7 @@
         <v>41.749135017</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>42.4092502593994</v>
       </c>
@@ -23650,7 +23659,7 @@
         <v>42.079045057000002</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>42.739299774169901</v>
       </c>
@@ -23686,7 +23695,7 @@
         <v>42.408989906000002</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>43.069299697875998</v>
       </c>
@@ -23722,7 +23731,7 @@
         <v>42.738934993999997</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>43.399349212646499</v>
       </c>
@@ -23758,7 +23767,7 @@
         <v>43.068890095</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>43.729400634765597</v>
       </c>
@@ -23794,7 +23803,7 @@
         <v>43.398874997999997</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>44.059400558471701</v>
       </c>
@@ -23830,7 +23839,7 @@
         <v>43.728864907999998</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>44.389450073242202</v>
       </c>
@@ -23866,7 +23875,7 @@
         <v>44.058877348999999</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>44.719499588012702</v>
       </c>
@@ -23902,7 +23911,7 @@
         <v>44.388894796000002</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>45.0494995117188</v>
       </c>
@@ -23938,7 +23947,7 @@
         <v>44.718924999000002</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>45.379550933837898</v>
       </c>
@@ -23974,7 +23983,7 @@
         <v>45.048960209000001</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>45.709600448608398</v>
       </c>
@@ -24010,7 +24019,7 @@
         <v>45.379005194000001</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>46.039600372314503</v>
       </c>
@@ -24046,7 +24055,7 @@
         <v>45.709065199000001</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>46.369649887084996</v>
       </c>
@@ -24082,7 +24091,7 @@
         <v>46.039125085000002</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>46.699699401855497</v>
       </c>
@@ -24118,7 +24127,7 @@
         <v>46.369174956999998</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>47.029699325561502</v>
       </c>
@@ -24154,7 +24163,7 @@
         <v>46.699219941999999</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>47.359748840332003</v>
       </c>
@@ -24190,7 +24199,7 @@
         <v>47.029304981000003</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>47.6898002624512</v>
       </c>
@@ -24226,7 +24235,7 @@
         <v>47.359375</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>48.019800186157198</v>
       </c>
@@ -24262,7 +24271,7 @@
         <v>47.689432502000003</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>48.349849700927699</v>
       </c>
@@ -24298,7 +24307,7 @@
         <v>48.019502490999997</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>48.6798992156982</v>
       </c>
@@ -24334,7 +24343,7 @@
         <v>48.349579990000002</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>49.009899139404297</v>
       </c>
@@ -24370,7 +24379,7 @@
         <v>48.679654956</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>49.339950561523402</v>
       </c>
@@ -24406,7 +24415,7 @@
         <v>49.009726524000001</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>49.670000076293903</v>
       </c>
@@ -24442,7 +24451,7 @@
         <v>49.339810997000001</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>50</v>
       </c>
@@ -24478,7 +24487,7 @@
         <v>49.669894493999998</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>50.330049514770501</v>
       </c>
@@ -24514,7 +24523,7 @@
         <v>49.999995499850002</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>50.660099029541001</v>
       </c>
@@ -24550,7 +24559,7 @@
         <v>50.330105498000002</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>50.990100860595703</v>
       </c>
@@ -24586,7 +24595,7 @@
         <v>50.660198002999998</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>51.3201007843018</v>
       </c>
@@ -24622,7 +24631,7 @@
         <v>50.990286976</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>51.650150299072301</v>
       </c>
@@ -24658,7 +24667,7 @@
         <v>51.320389986000002</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>51.980199813842802</v>
       </c>
@@ -24694,7 +24703,7 @@
         <v>51.650505006000003</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>52.310249328613303</v>
       </c>
@@ -24730,7 +24739,7 @@
         <v>51.980614959999997</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>52.640300750732401</v>
       </c>
@@ -24766,7 +24775,7 @@
         <v>52.310709953</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>52.970300674438498</v>
       </c>
@@ -24802,7 +24811,7 @@
         <v>52.640799999000002</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>53.300300598144503</v>
       </c>
@@ -24838,7 +24847,7 @@
         <v>52.970885037999999</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>53.630350112915004</v>
       </c>
@@ -24874,7 +24883,7 @@
         <v>53.300955057000003</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>53.960399627685497</v>
       </c>
@@ -24910,7 +24919,7 @@
         <v>53.631020069000002</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>54.290399551391602</v>
       </c>
@@ -24946,7 +24955,7 @@
         <v>53.961060047000004</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>54.620449066162102</v>
       </c>
@@ -24982,7 +24991,7 @@
         <v>54.291120051999997</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>54.9505004882812</v>
       </c>
@@ -25018,7 +25027,7 @@
         <v>54.621140003000001</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>55.280500411987298</v>
       </c>
@@ -25054,7 +25063,7 @@
         <v>54.951159953999998</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>55.610549926757798</v>
       </c>
@@ -25090,7 +25099,7 @@
         <v>55.281199932</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>55.940599441528299</v>
       </c>
@@ -25126,7 +25135,7 @@
         <v>55.611199855999999</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>56.270599365234403</v>
       </c>
@@ -25162,7 +25171,7 @@
         <v>55.941174984</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>56.600650787353501</v>
       </c>
@@ -25198,7 +25207,7 @@
         <v>56.271180153000003</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>56.930700302124002</v>
       </c>
@@ -25234,7 +25243,7 @@
         <v>56.601155042999999</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>57.260700225830099</v>
       </c>
@@ -25270,7 +25279,7 @@
         <v>56.931109905</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>57.5907497406006</v>
       </c>
@@ -25306,7 +25315,7 @@
         <v>57.26107502</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>57.920799255371101</v>
       </c>
@@ -25342,7 +25351,7 @@
         <v>57.591025113999997</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>58.250799179077099</v>
       </c>
@@ -25378,7 +25387,7 @@
         <v>57.920964955999999</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>58.580848693847699</v>
       </c>
@@ -25414,7 +25423,7 @@
         <v>58.250869750999996</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>58.910900115966797</v>
       </c>
@@ -25450,7 +25459,7 @@
         <v>58.580784797999996</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>59.240900039672901</v>
       </c>
@@ -25486,7 +25495,7 @@
         <v>58.910715103000001</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>59.570949554443402</v>
       </c>
@@ -25522,7 +25531,7 @@
         <v>59.240605353999996</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>59.9010009765625</v>
       </c>
@@ -25558,7 +25567,7 @@
         <v>59.570485114999997</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>60.231000900268597</v>
       </c>
@@ -25594,7 +25603,7 @@
         <v>59.900324820999998</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>60.561050415039098</v>
       </c>
@@ -25630,7 +25639,7 @@
         <v>60.230149750000002</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>60.891099929809599</v>
       </c>
@@ -25666,7 +25675,7 @@
         <v>60.559999939999997</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>61.221099853515597</v>
       </c>
@@ -25702,7 +25711,7 @@
         <v>60.88980007</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>61.551151275634801</v>
       </c>
@@ -25738,7 +25747,7 @@
         <v>61.219550130000002</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>61.881200790405302</v>
       </c>
@@ -25774,7 +25783,7 @@
         <v>61.549300189999997</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>62.2112007141113</v>
       </c>
@@ -25810,7 +25819,7 @@
         <v>61.879049780000003</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>62.5412502288818</v>
       </c>
@@ -25846,7 +25855,7 @@
         <v>62.208749769999997</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>62.871299743652301</v>
       </c>
@@ -25882,7 +25891,7 @@
         <v>62.538450240000003</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>63.201299667358398</v>
       </c>
@@ -25918,7 +25927,7 @@
         <v>62.868100169999998</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>63.531349182128899</v>
       </c>
@@ -25954,7 +25963,7 @@
         <v>63.197700019999999</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>63.8613986968994</v>
       </c>
@@ -25990,7 +25999,7 @@
         <v>63.527299880000001</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>64.191398620605497</v>
       </c>
@@ -26026,7 +26035,7 @@
         <v>63.856899740000003</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>64.521450042724595</v>
       </c>
@@ -26062,7 +26071,7 @@
         <v>64.186500069999994</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>64.851501464843807</v>
       </c>
@@ -26098,7 +26107,7 @@
         <v>64.516050339999993</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>65.1814994812012</v>
       </c>
@@ -26134,7 +26143,7 @@
         <v>64.845550059999994</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>65.511547088623004</v>
       </c>
@@ -26170,7 +26179,7 @@
         <v>65.175049779999995</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>65.841598510742202</v>
       </c>
@@ -26206,7 +26215,7 @@
         <v>65.504549980000007</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>66.171600341796903</v>
       </c>
@@ -26242,7 +26251,7 @@
         <v>65.834000110000005</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>66.501651763916001</v>
       </c>
@@ -26278,7 +26287,7 @@
         <v>66.163400170000003</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>66.831699371337905</v>
       </c>
@@ -26314,7 +26323,7 @@
         <v>66.492799759999997</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>67.161697387695298</v>
       </c>
@@ -26350,7 +26359,7 @@
         <v>66.822199820000009</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>67.491748809814496</v>
       </c>
@@ -26386,7 +26395,7 @@
         <v>67.151550290000003</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>67.821800231933594</v>
       </c>
@@ -26422,7 +26431,7 @@
         <v>67.480850220000008</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>68.151802062988295</v>
       </c>
@@ -26458,7 +26467,7 @@
         <v>67.810150149999998</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>68.481849670410199</v>
       </c>
@@ -26494,7 +26503,7 @@
         <v>68.139349940000002</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>68.811897277832003</v>
       </c>
@@ -26530,7 +26539,7 @@
         <v>68.468549730000007</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>69.141899108886705</v>
       </c>
@@ -26566,7 +26575,7 @@
         <v>68.797749519999996</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>69.471950531005902</v>
       </c>
@@ -26602,7 +26611,7 @@
         <v>69.126850130000008</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>69.802001953125</v>
       </c>
@@ -26638,7 +26647,7 @@
         <v>69.456000329999995</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>70.131999969482393</v>
       </c>
@@ -26674,7 +26683,7 @@
         <v>69.785099979999998</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>70.462047576904297</v>
       </c>
@@ -26710,7 +26719,7 @@
         <v>70.114100460000003</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>70.792098999023395</v>
       </c>
@@ -26746,7 +26755,7 @@
         <v>70.44309998</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>71.122100830078097</v>
       </c>
@@ -26782,7 +26791,7 @@
         <v>70.772049899999999</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>71.452152252197294</v>
       </c>
@@ -26818,7 +26827,7 @@
         <v>71.100950240000003</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>71.782199859619098</v>
       </c>
@@ -26854,7 +26863,7 @@
         <v>71.429849619999999</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>72.112197875976605</v>
       </c>
@@ -26890,7 +26899,7 @@
         <v>71.758699419999999</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>72.442249298095703</v>
       </c>
@@ -26926,7 +26935,7 @@
         <v>72.087499620000003</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>72.772300720214801</v>
       </c>
@@ -26962,7 +26971,7 @@
         <v>72.416299820000006</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>73.102302551269503</v>
       </c>
@@ -26998,7 +27007,7 @@
         <v>72.745050429999992</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>73.432350158691406</v>
       </c>
@@ -27034,7 +27043,7 @@
         <v>73.073750500000003</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>73.762397766113295</v>
       </c>
@@ -27070,7 +27079,7 @@
         <v>73.402449610000005</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>74.092399597167997</v>
       </c>
@@ -27106,7 +27115,7 @@
         <v>73.731099130000004</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>74.422451019287095</v>
       </c>
@@ -27142,7 +27151,7 @@
         <v>74.05970001</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>74.752502441406193</v>
       </c>
@@ -27178,7 +27187,7 @@
         <v>74.388250349999993</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>75.0825004577637</v>
       </c>
@@ -27214,7 +27223,7 @@
         <v>74.716750140000002</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>75.412548065185504</v>
       </c>
@@ -27250,7 +27259,7 @@
         <v>75.045249940000005</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>75.742599487304702</v>
       </c>
@@ -27286,7 +27295,7 @@
         <v>75.373700139999997</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>76.072601318359403</v>
       </c>
@@ -27322,7 +27331,7 @@
         <v>75.702050209999996</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>76.402652740478501</v>
       </c>
@@ -27358,7 +27367,7 @@
         <v>76.030349729999998</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>76.732700347900405</v>
       </c>
@@ -27394,7 +27403,7 @@
         <v>76.358599659999996</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>77.062698364257798</v>
       </c>
@@ -27430,7 +27439,7 @@
         <v>76.686849590000008</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>77.392749786376996</v>
       </c>
@@ -27466,7 +27475,7 @@
         <v>77.015049930000004</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>77.722801208496094</v>
       </c>
@@ -27502,7 +27511,7 @@
         <v>77.343150140000006</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>78.052799224853501</v>
       </c>
@@ -27538,7 +27547,7 @@
         <v>77.671199799999997</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>78.382846832275405</v>
       </c>
@@ -27574,7 +27583,7 @@
         <v>77.999249460000001</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>78.712898254394503</v>
       </c>
@@ -27610,7 +27619,7 @@
         <v>78.327249530000003</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>79.042900085449205</v>
       </c>
@@ -27646,7 +27655,7 @@
         <v>78.655149460000004</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>79.372901916503906</v>
       </c>
@@ -27682,7 +27691,7 @@
         <v>78.983049390000005</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>79.702949523925795</v>
       </c>
@@ -27718,7 +27727,7 @@
         <v>79.310899730000003</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>80.032997131347699</v>
       </c>
@@ -27754,7 +27763,7 @@
         <v>79.638700490000005</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>80.363048553466797</v>
       </c>
@@ -27790,7 +27799,7 @@
         <v>79.966450690000002</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>80.693099975585895</v>
       </c>
@@ -27826,7 +27835,7 @@
         <v>80.294099810000006</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>81.023101806640597</v>
       </c>
@@ -27862,7 +27871,7 @@
         <v>80.621749879999996</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>81.353153228759794</v>
       </c>
@@ -27898,7 +27907,7 @@
         <v>80.949350359999997</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>81.683200836181598</v>
       </c>
@@ -27934,7 +27943,7 @@
         <v>81.276849749999997</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>82.013198852539105</v>
       </c>
@@ -27970,7 +27979,7 @@
         <v>81.60439968</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>82.343200683593807</v>
       </c>
@@ -28006,7 +28015,7 @@
         <v>81.931800839999994</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>82.673252105712905</v>
       </c>
@@ -28042,7 +28051,7 @@
         <v>82.259201050000001</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>83.003299713134794</v>
       </c>
@@ -28078,7 +28087,7 @@
         <v>82.586500169999994</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>83.333347320556598</v>
       </c>
@@ -28114,7 +28123,7 @@
         <v>82.913749690000003</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>83.663398742675795</v>
       </c>
@@ -28150,7 +28159,7 @@
         <v>83.240949630000003</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>83.993400573730497</v>
       </c>
@@ -28186,7 +28195,7 @@
         <v>83.56809998</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A258">
         <v>84.323402404785199</v>
       </c>
@@ -28222,7 +28231,7 @@
         <v>83.895200729999999</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A259">
         <v>84.653450012207003</v>
       </c>
@@ -28258,7 +28267,7 @@
         <v>84.222200389999998</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A260">
         <v>84.983497619628906</v>
       </c>
@@ -28294,7 +28303,7 @@
         <v>84.549150470000001</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A261">
         <v>85.313549041748004</v>
       </c>
@@ -28330,7 +28339,7 @@
         <v>84.876050950000007</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A262">
         <v>85.643600463867202</v>
       </c>
@@ -28366,7 +28375,7 @@
         <v>85.202850339999998</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A263">
         <v>85.973602294921903</v>
       </c>
@@ -28402,7 +28411,7 @@
         <v>85.529600139999999</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A264">
         <v>86.303649902343807</v>
       </c>
@@ -28438,7 +28447,7 @@
         <v>85.856300349999998</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A265">
         <v>86.633697509765597</v>
       </c>
@@ -28474,7 +28483,7 @@
         <v>86.182949070000006</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A266">
         <v>86.963699340820298</v>
       </c>
@@ -28510,7 +28519,7 @@
         <v>86.509548190000004</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A267">
         <v>87.293701171875</v>
       </c>
@@ -28546,7 +28555,7 @@
         <v>86.836048129999995</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A268">
         <v>87.623752593994098</v>
       </c>
@@ -28582,7 +28591,7 @@
         <v>87.162498470000003</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A269">
         <v>87.953800201416001</v>
       </c>
@@ -28618,7 +28627,7 @@
         <v>87.488899230000001</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A270">
         <v>88.283798217773395</v>
       </c>
@@ -28654,7 +28663,7 @@
         <v>87.815250399999996</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A271">
         <v>88.613849639892607</v>
       </c>
@@ -28690,7 +28699,7 @@
         <v>88.141500469999997</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A272">
         <v>88.943901062011705</v>
       </c>
@@ -28726,7 +28735,7 @@
         <v>88.467699049999993</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A273">
         <v>89.273902893066406</v>
       </c>
@@ -28762,7 +28771,7 @@
         <v>88.793849950000009</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A274">
         <v>89.603950500488295</v>
       </c>
@@ -28798,7 +28807,7 @@
         <v>89.11995125</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A275">
         <v>89.933998107910199</v>
       </c>
@@ -28834,7 +28843,7 @@
         <v>89.445949549999995</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A276">
         <v>90.263999938964801</v>
       </c>
@@ -28870,7 +28879,7 @@
         <v>89.771848680000005</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A277">
         <v>90.594051361083999</v>
       </c>
@@ -28906,7 +28915,7 @@
         <v>90.097749710000002</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A278">
         <v>90.924102783203097</v>
       </c>
@@ -28942,7 +28951,7 @@
         <v>90.423549649999998</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A279">
         <v>91.254100799560504</v>
       </c>
@@ -28978,7 +28987,7 @@
         <v>90.749250410000002</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A280">
         <v>91.584148406982393</v>
       </c>
@@ -29014,7 +29023,7 @@
         <v>91.074901580000002</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A281">
         <v>91.914199829101605</v>
       </c>
@@ -29050,7 +29059,7 @@
         <v>91.400501249999991</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A282">
         <v>92.244201660156193</v>
       </c>
@@ -29086,7 +29095,7 @@
         <v>91.725999830000006</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A283">
         <v>92.574253082275405</v>
       </c>
@@ -29122,7 +29131,7 @@
         <v>92.051399230000001</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A284">
         <v>92.904300689697294</v>
       </c>
@@ -29158,7 +29167,7 @@
         <v>92.376749039999993</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A285">
         <v>93.234298706054702</v>
       </c>
@@ -29194,7 +29203,7 @@
         <v>92.701999659999998</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A286">
         <v>93.5643501281738</v>
       </c>
@@ -29230,7 +29239,7 @@
         <v>93.027200700000009</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A287">
         <v>93.894401550292997</v>
       </c>
@@ -29266,7 +29275,7 @@
         <v>93.352350229999999</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A288">
         <v>94.224399566650405</v>
       </c>
@@ -29302,7 +29311,7 @@
         <v>93.677351000000002</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A289">
         <v>94.554447174072294</v>
       </c>
@@ -29338,7 +29347,7 @@
         <v>94.002300259999998</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A290">
         <v>94.884498596191406</v>
       </c>
@@ -29374,7 +29383,7 @@
         <v>94.327249530000003</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A291">
         <v>95.214500427246094</v>
       </c>
@@ -29410,7 +29419,7 @@
         <v>94.652099609999993</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A292">
         <v>95.544551849365206</v>
       </c>
@@ -29446,7 +29455,7 @@
         <v>94.976848599999997</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A293">
         <v>95.874599456787095</v>
       </c>
@@ -29482,7 +29491,7 @@
         <v>95.301498409999994</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A294">
         <v>96.204597473144503</v>
       </c>
@@ -29518,7 +29527,7 @@
         <v>95.626098630000001</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A295">
         <v>96.5346488952637</v>
       </c>
@@ -29554,7 +29563,7 @@
         <v>95.950649260000006</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A296">
         <v>96.864700317382798</v>
       </c>
@@ -29590,7 +29599,7 @@
         <v>96.275100710000004</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A297">
         <v>97.1947021484375</v>
       </c>
@@ -29626,7 +29635,7 @@
         <v>96.599451070000001</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A298">
         <v>97.524749755859403</v>
       </c>
@@ -29662,7 +29671,7 @@
         <v>96.923700330000003</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A299">
         <v>97.854797363281193</v>
       </c>
@@ -29698,7 +29707,7 @@
         <v>97.247850419999992</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A300">
         <v>98.184799194335895</v>
       </c>
@@ -29734,7 +29743,7 @@
         <v>97.571950909999998</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A301">
         <v>98.514850616455107</v>
       </c>
@@ -29770,7 +29779,7 @@
         <v>97.895950319999997</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A302">
         <v>98.844902038574205</v>
       </c>
@@ -29806,7 +29815,7 @@
         <v>98.21985054000001</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A303">
         <v>99.174900054931598</v>
       </c>
@@ -29842,7 +29851,7 @@
         <v>98.543701169999991</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A304">
         <v>99.504947662353501</v>
       </c>
@@ -29878,7 +29887,7 @@
         <v>98.86745071</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A305">
         <v>99.834999084472699</v>
       </c>
@@ -29914,7 +29923,7 @@
         <v>99.191150669999999</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H306">
         <v>49.51469994</v>
       </c>
@@ -29935,7 +29944,7 @@
         <v>99.51469994</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="H307">
         <v>49.838249210000001</v>
       </c>

--- a/結果/曲げ剛性/曲率試験片/0°,90°固有変形比較.xlsx
+++ b/結果/曲げ剛性/曲率試験片/0°,90°固有変形比較.xlsx
@@ -8473,7 +8473,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>0-10pass</c:v>
+            <c:v>0°-10pass</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -10334,7 +10334,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>90-10pass</c:v>
+            <c:v>90°-10pass</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -19324,7 +19324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
